--- a/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh3.xlsx
+++ b/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="perm=1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -184,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -245,7 +290,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,6 +302,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,7 +639,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -574,7 +648,7 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -582,49 +656,105 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="5">
+        <v>7.9672999999999994E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.1873E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>8.0854999999999996E-2</v>
+      </c>
+      <c r="E2" s="31">
+        <v>6.3070000000000001E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.14552000000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.48896000000000001</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0.28550999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="5">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.1916000000000002E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4.0615999999999999E-2</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1.5380000000000001E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.3984999999999998E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.25003999999999998</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0.13997999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="17"/>
+      <c r="B4" s="5">
+        <v>1.9761999999999998E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.2919999999999999E-4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.0327000000000001E-2</v>
+      </c>
+      <c r="E4" s="31">
+        <v>8.2919999999999999E-4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.9911999999999999E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.12606000000000001</v>
+      </c>
+      <c r="H4" s="34">
+        <v>6.9336999999999996E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="17"/>
+      <c r="B5" s="5">
+        <v>9.8758000000000006E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.1069E-4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.0166E-2</v>
+      </c>
+      <c r="E5" s="31">
+        <v>9.4079999999999994E-5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7.3118999999999996E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.3238000000000003E-2</v>
+      </c>
+      <c r="H5" s="34">
+        <v>3.4563000000000003E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -633,10 +763,10 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="17"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -647,14 +777,14 @@
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
@@ -669,99 +799,99 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="e">
+      <c r="B9" s="8">
         <f t="shared" ref="B9:H9" si="0">B2/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.0119444444444441</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.7200777039729287</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9907179436675202</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1007802340702213</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.695563582476614</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9555271156614944</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0396485212173165</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="e">
+      <c r="B10" s="8">
         <f t="shared" ref="B10:H10" si="1">B3/B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="8" t="e">
+        <v>2.0038457645987253</v>
+      </c>
+      <c r="C10" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="9" t="e">
+        <v>3.8490110950313556</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="9" t="e">
+        <v>1.998130565258031</v>
+      </c>
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
+        <v>1.854799807042933</v>
+      </c>
+      <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
+        <v>2.7111791884290879</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="9" t="e">
+        <v>1.9834999206726953</v>
+      </c>
+      <c r="H10" s="9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.0188355423511255</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="e">
+      <c r="B11" s="8">
         <f t="shared" ref="B11:H11" si="2">B4/B5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0010530792442127</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="2"/>
+        <v>3.9356400398690017</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9995081644698014</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="2"/>
+        <v>8.8137755102040813</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>2.7232319916847878</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9934216768398747</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="2"/>
+        <v>2.0061047941440266</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -806,14 +936,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
@@ -828,93 +958,93 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="21" t="e">
+      <c r="B15" s="21">
         <f>LN(B9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="21" t="e">
+        <v>1.0085904687462899</v>
+      </c>
+      <c r="C15" s="21">
         <f t="shared" ref="C15:H15" si="4">LN(C9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="18" t="e">
+        <v>1.8953327562702971</v>
+      </c>
+      <c r="D15" s="18">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="18" t="e">
+        <v>0.9932888262325853</v>
+      </c>
+      <c r="E15" s="32">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="21" t="e">
+        <v>2.0358984299093166</v>
+      </c>
+      <c r="F15" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="21" t="e">
+        <v>1.4305869400056028</v>
+      </c>
+      <c r="G15" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="18" t="e">
+        <v>0.96755754085692192</v>
+      </c>
+      <c r="H15" s="35">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.0283205637728552</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="21" t="e">
+      <c r="B16" s="21">
         <f t="shared" ref="B16:H16" si="5">LN(B10)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="21" t="e">
+        <v>1.0027714690062894</v>
+      </c>
+      <c r="C16" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="18" t="e">
+        <v>1.944487829819483</v>
+      </c>
+      <c r="D16" s="18">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="18" t="e">
+        <v>0.99865085725239255</v>
+      </c>
+      <c r="E16" s="32">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="21" t="e">
+        <v>0.89126348173977421</v>
+      </c>
+      <c r="F16" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="21" t="e">
+        <v>1.4389204675522103</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="18" t="e">
+        <v>0.9880483397846247</v>
+      </c>
+      <c r="H16" s="35">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.0135233911557211</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="e">
+      <c r="B17" s="21">
         <f t="shared" ref="B17:H17" si="6">LN(B11)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="21" t="e">
+        <v>1.0007594361825654</v>
+      </c>
+      <c r="C17" s="21">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="18" t="e">
+        <v>1.9765982754424518</v>
+      </c>
+      <c r="D17" s="18">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="18" t="e">
+        <v>0.99964517202878544</v>
+      </c>
+      <c r="E17" s="32">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="21" t="e">
+        <v>3.1397601511604125</v>
+      </c>
+      <c r="F17" s="21">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="21" t="e">
+        <v>1.4453198905699332</v>
+      </c>
+      <c r="G17" s="21">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="18" t="e">
+        <v>0.99524692178644436</v>
+      </c>
+      <c r="H17" s="35">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.0043969708768308</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -931,7 +1061,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="18" t="e">
+      <c r="E18" s="32" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -943,7 +1073,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="18" t="e">
+      <c r="H18" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -965,7 +1095,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -986,7 +1116,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
@@ -1006,49 +1136,105 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="5">
+        <v>7.9694000000000001E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.1899E-2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>8.0798999999999996E-2</v>
+      </c>
+      <c r="E2" s="24">
+        <v>6.6531999999999997E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.14563000000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="H2" s="24">
+        <v>2.8678999999999998E-4</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="24"/>
+      <c r="B3" s="5">
+        <v>3.9604E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.2009E-3</v>
+      </c>
+      <c r="D3" s="17">
+        <v>4.0599000000000003E-2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1.6829E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.4012999999999999E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.25006</v>
+      </c>
+      <c r="H3" s="24">
+        <v>1.4083999999999999E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="24"/>
+      <c r="B4" s="5">
+        <v>1.9762999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.3228999999999996E-4</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2.0324999999999999E-2</v>
+      </c>
+      <c r="E4" s="24">
+        <v>4.2827000000000002E-4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.9917000000000001E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.12606000000000001</v>
+      </c>
+      <c r="H4" s="24">
+        <v>6.9812000000000002E-5</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="24"/>
+      <c r="B5" s="5">
+        <v>9.8759E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.1159E-4</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1.0165E-2</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1.1394E-4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7.3127000000000001E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.3238000000000003E-2</v>
+      </c>
+      <c r="H5" s="24">
+        <v>3.4755000000000002E-5</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1056,7 +1242,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="24"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="24"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1071,14 +1257,14 @@
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
@@ -1093,99 +1279,99 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="e">
+      <c r="B9" s="8">
         <f t="shared" ref="B9:H12" si="0">B2/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.0122714877285124</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.7173919835046392</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9901721717283674</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9534137500742763</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6962027660007779</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9559305766616011</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.036282306163022</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0039467692152</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8458950606158915</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9974907749077493</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9295304364069392</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7119044032735853</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9836585752816118</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>2.017418208903913</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0011340738565599</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.933503473699135</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.999508116084604</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>3.7587326663156051</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7236178155811124</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9934216768398747</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0086893972090345</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1230,14 +1416,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
@@ -1252,93 +1438,93 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="e">
+      <c r="B15" s="12">
         <f>LN(B9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="12" t="e">
+        <v>1.0088249609967421</v>
+      </c>
+      <c r="C15" s="12">
         <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="25" t="e">
+        <v>1.8942908224051398</v>
+      </c>
+      <c r="D15" s="18">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="25" t="e">
+        <v>0.99289324511771859</v>
+      </c>
+      <c r="E15" s="25">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="12" t="e">
+        <v>1.9830989503368177</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="12" t="e">
+        <v>1.43092899744847</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="25" t="e">
+        <v>0.96785516452149722</v>
+      </c>
+      <c r="H15" s="25">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0259375876747741</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="e">
+      <c r="B16" s="12">
         <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0028441867720401</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9433193977286363</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.99818884031191324</v>
+      </c>
+      <c r="E16" s="25">
+        <f t="shared" si="2"/>
+        <v>1.9743569263411274</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4393063232552545</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.98816373230945243</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="2"/>
+        <v>1.0125101842833886</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0008178295165688</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9758148576567103</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="2"/>
+        <v>0.99964513711765757</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="2"/>
+        <v>1.9102463097156259</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4455242752115192</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99524692178644436</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="2"/>
+        <v>1.0062544979937644</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1351,7 +1537,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="25" t="e">
+      <c r="D18" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1389,7 +1575,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H15" activeCellId="3" sqref="E1:E6 E15:E18 H1:H6 H15:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1410,10 +1596,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -1422,7 +1608,7 @@
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1430,49 +1616,105 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="5">
+        <v>7.9694000000000001E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.1899E-2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>8.0829999999999999E-2</v>
+      </c>
+      <c r="E2" s="36">
+        <v>7.0210000000000003E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.14563000000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.48907</v>
+      </c>
+      <c r="H2" s="36">
+        <v>2.8685E-7</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="24"/>
+      <c r="B3" s="5">
+        <v>3.9604E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.2009999999999999E-3</v>
+      </c>
+      <c r="D3" s="17">
+        <v>4.0662999999999998E-2</v>
+      </c>
+      <c r="E3" s="36">
+        <v>2.8329000000000002E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.4012999999999999E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.25004999999999999</v>
+      </c>
+      <c r="H3" s="36">
+        <v>1.4231000000000001E-7</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="24"/>
+      <c r="B4" s="5">
+        <v>1.9762999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.3233000000000005E-4</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2.0451E-2</v>
+      </c>
+      <c r="E4" s="36">
+        <v>2.3081999999999998E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.9917000000000001E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.12609000000000001</v>
+      </c>
+      <c r="H4" s="36">
+        <v>7.6059999999999994E-8</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="24"/>
+      <c r="B5" s="5">
+        <v>9.8759E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.1160999999999999E-4</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1.0409E-2</v>
+      </c>
+      <c r="E5" s="36">
+        <v>2.2393000000000001E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7.3127000000000001E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.3308000000000003E-2</v>
+      </c>
+      <c r="H5" s="36">
+        <v>5.4771000000000001E-8</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1480,29 +1722,29 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
@@ -1517,99 +1759,99 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="e">
+      <c r="B9" s="8">
         <f t="shared" ref="B9:H12" si="0">B2/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.0122714877285124</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.7172758512964701</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9878021788849816</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4783790462070669</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6962027660007779</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.955888822235553</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0156700161618999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0039467692152</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8458303797772513</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9883135299007382</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2273199896022877</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7119044032735853</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9831073043064475</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8710228766763084</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0011340738565599</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.933320731534427</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9647420501489097</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0307685437413476</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7236178155811124</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9916914134074684</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3886910956528089</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1654,14 +1896,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
@@ -1676,93 +1918,93 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="e">
+      <c r="B15" s="12">
         <f>LN(B9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="12" t="e">
+        <v>1.0088249609967421</v>
+      </c>
+      <c r="C15" s="12">
         <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="25" t="e">
+        <v>1.8942457515655138</v>
+      </c>
+      <c r="D15" s="18">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="25" t="e">
+        <v>0.99117419063154955</v>
+      </c>
+      <c r="E15" s="39">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="12" t="e">
+        <v>1.3093968518301193</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="12" t="e">
+        <v>1.43092899744847</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="25" t="e">
+        <v>0.96782436611428357</v>
+      </c>
+      <c r="H15" s="39">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0112594756369946</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="e">
+      <c r="B16" s="12">
         <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0028441867720401</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9432951340635141</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.99154526815176491</v>
+      </c>
+      <c r="E16" s="39">
+        <f t="shared" si="2"/>
+        <v>0.295511440709257</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4393063232552545</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.98776274272180464</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" si="2"/>
+        <v>0.90382719827174551</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0008178295165688</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9757478315714807</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="2"/>
+        <v>0.97433991431639322</v>
+      </c>
+      <c r="E17" s="39">
+        <f t="shared" si="2"/>
+        <v>4.3720415844493037E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4455242752115192</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99399413795135982</v>
+      </c>
+      <c r="H17" s="39">
+        <f t="shared" si="2"/>
+        <v>0.47372571787043866</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1775,11 +2017,11 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="25" t="e">
+      <c r="D18" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1791,7 +2033,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="25" t="e">
+      <c r="H18" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1813,7 +2055,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1834,10 +2076,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -1846,7 +2088,7 @@
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1854,49 +2096,105 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="5">
+        <v>7.9694000000000001E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.1899E-2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>8.0829999999999999E-2</v>
+      </c>
+      <c r="E2" s="36">
+        <v>7.0235999999999996E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.14563000000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.48907</v>
+      </c>
+      <c r="H2" s="36">
+        <v>2.8685999999999998E-10</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="24"/>
+      <c r="B3" s="5">
+        <v>3.9604E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.2009999999999999E-3</v>
+      </c>
+      <c r="D3" s="17">
+        <v>4.0663999999999999E-2</v>
+      </c>
+      <c r="E3" s="36">
+        <v>2.8463999999999998E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.4012999999999999E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.25004999999999999</v>
+      </c>
+      <c r="H3" s="36">
+        <v>1.4232999999999999E-10</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="24"/>
+      <c r="B4" s="5">
+        <v>1.9762999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.3233000000000005E-4</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2.0454E-2</v>
+      </c>
+      <c r="E4" s="36">
+        <v>2.3411999999999999E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.9917000000000001E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.12609000000000001</v>
+      </c>
+      <c r="H4" s="36">
+        <v>7.624E-11</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="24"/>
+      <c r="B5" s="5">
+        <v>9.8759E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.1160999999999999E-4</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1.0423E-2</v>
+      </c>
+      <c r="E5" s="36">
+        <v>2.3058000000000002E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7.3127000000000001E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.3312999999999994E-2</v>
+      </c>
+      <c r="H5" s="36">
+        <v>5.5750999999999997E-11</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1904,29 +2202,29 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
@@ -1941,99 +2239,99 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="e">
+      <c r="B9" s="8">
         <f t="shared" ref="B9:H12" si="0">B2/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.0122714877285124</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.7172758512964701</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9877532952980523</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4675379426644182</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6962027660007779</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.955888822235553</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0154570364645541</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0039467692152</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8458303797772513</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9880707929989243</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2157867760123013</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7119044032735853</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9831073043064475</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8668677859391394</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0011340738565599</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.933320731534427</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9623908663532572</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0153525891230808</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7236178155811124</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9915341241135316</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3675091029757314</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2078,14 +2376,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2100,93 +2398,93 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="e">
+      <c r="B15" s="12">
         <f>LN(B9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="12" t="e">
+        <v>1.0088249609967421</v>
+      </c>
+      <c r="C15" s="12">
         <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="25" t="e">
+        <v>1.8942457515655138</v>
+      </c>
+      <c r="D15" s="18">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="25" t="e">
+        <v>0.99113871176128587</v>
+      </c>
+      <c r="E15" s="39">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="12" t="e">
+        <v>1.3030722687841789</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="12" t="e">
+        <v>1.43092899744847</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="25" t="e">
+        <v>0.96782436611428357</v>
+      </c>
+      <c r="H15" s="39">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.011107029559535</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="e">
+      <c r="B16" s="12">
         <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0028441867720401</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9432951340635141</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.99136913058734188</v>
+      </c>
+      <c r="E16" s="39">
+        <f t="shared" si="2"/>
+        <v>0.28189023193697726</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4393063232552545</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.98776274272180464</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" si="2"/>
+        <v>0.90061975759937363</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0008178295165688</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9757478315714807</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="2"/>
+        <v>0.97261242422139849</v>
+      </c>
+      <c r="E17" s="39">
+        <f t="shared" si="2"/>
+        <v>2.1980801546223429E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4455242752115192</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99388019989672138</v>
+      </c>
+      <c r="H17" s="39">
+        <f t="shared" si="2"/>
+        <v>0.45155043650904564</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2199,11 +2497,11 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="25" t="e">
+      <c r="D18" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2215,7 +2513,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="25" t="e">
+      <c r="H18" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2233,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2257,10 +2555,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -2269,7 +2567,7 @@
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2277,49 +2575,105 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="5">
+        <v>7.9694000000000001E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.1899E-2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>8.0829999999999999E-2</v>
+      </c>
+      <c r="E2" s="36">
+        <v>7.0235999999999996E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.14563000000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.48907</v>
+      </c>
+      <c r="H2" s="36">
+        <v>2.8686E-13</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="24"/>
+      <c r="B3" s="5">
+        <v>3.9604E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.2009999999999999E-3</v>
+      </c>
+      <c r="D3" s="17">
+        <v>4.0663999999999999E-2</v>
+      </c>
+      <c r="E3" s="36">
+        <v>2.8463999999999998E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.4012999999999999E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.25004999999999999</v>
+      </c>
+      <c r="H3" s="36">
+        <v>1.4233000000000001E-13</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="24"/>
+      <c r="B4" s="5">
+        <v>1.9762999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.3233000000000005E-4</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2.0454E-2</v>
+      </c>
+      <c r="E4" s="36">
+        <v>2.3413000000000002E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.9917000000000001E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.12609000000000001</v>
+      </c>
+      <c r="H4" s="36">
+        <v>7.6239999999999999E-14</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="24"/>
+      <c r="B5" s="5">
+        <v>9.8759E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.1160999999999999E-4</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1.0423E-2</v>
+      </c>
+      <c r="E5" s="36">
+        <v>2.3058000000000002E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7.3127000000000001E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.3312999999999994E-2</v>
+      </c>
+      <c r="H5" s="36">
+        <v>5.5752000000000002E-14</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -2327,29 +2681,29 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
@@ -2364,99 +2718,99 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="e">
+      <c r="B9" s="8">
         <f t="shared" ref="B9:H12" si="0">B2/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.0122714877285124</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.7172758512964701</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9877532952980523</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4675379426644182</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6962027660007779</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.955888822235553</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0154570364645541</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0039467692152</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8458303797772513</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9880707929989243</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2157348481612777</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7119044032735853</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9831073043064475</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8668677859391398</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0011340738565599</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.933320731534427</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9623908663532572</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0153959580189089</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7236178155811124</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9915341241135316</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3674845745444109</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2501,14 +2855,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2523,93 +2877,93 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="e">
+      <c r="B15" s="12">
         <f>LN(B9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="12" t="e">
+        <v>1.0088249609967421</v>
+      </c>
+      <c r="C15" s="12">
         <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="25" t="e">
+        <v>1.8942457515655138</v>
+      </c>
+      <c r="D15" s="18">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="25" t="e">
+        <v>0.99113871176128587</v>
+      </c>
+      <c r="E15" s="39">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="12" t="e">
+        <v>1.3030722687841789</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="12" t="e">
+        <v>1.43092899744847</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="25" t="e">
+        <v>0.96782436611428357</v>
+      </c>
+      <c r="H15" s="39">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.011107029559535</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="e">
+      <c r="B16" s="12">
         <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0028441867720401</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9432951340635141</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.99136913058734188</v>
+      </c>
+      <c r="E16" s="39">
+        <f t="shared" si="2"/>
+        <v>0.28182861121979147</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4393063232552545</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.98776274272180464</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" si="2"/>
+        <v>0.90061975759937396</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0008178295165688</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9757478315714807</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="2"/>
+        <v>0.97261242422139849</v>
+      </c>
+      <c r="E17" s="39">
+        <f t="shared" si="2"/>
+        <v>2.2042422263409342E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4455242752115192</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99388019989672138</v>
+      </c>
+      <c r="H17" s="39">
+        <f t="shared" si="2"/>
+        <v>0.45152455926734036</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2622,11 +2976,11 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="25" t="e">
+      <c r="D18" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2638,10 +2992,13 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H18" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D19" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh3.xlsx
+++ b/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="perm=1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,21 +176,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -229,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,6 +275,9 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,20 +299,11 @@
     <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -615,7 +594,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H15" activeCellId="1" sqref="H1:H6 H15:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,7 +618,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -648,7 +627,7 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -665,7 +644,7 @@
       <c r="D2" s="6">
         <v>8.0854999999999996E-2</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="32">
         <v>6.3070000000000001E-3</v>
       </c>
       <c r="F2" s="5">
@@ -674,7 +653,7 @@
       <c r="G2" s="5">
         <v>0.48896000000000001</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="17">
         <v>0.28550999999999999</v>
       </c>
     </row>
@@ -691,7 +670,7 @@
       <c r="D3" s="6">
         <v>4.0615999999999999E-2</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="32">
         <v>1.5380000000000001E-3</v>
       </c>
       <c r="F3" s="5">
@@ -700,7 +679,7 @@
       <c r="G3" s="5">
         <v>0.25003999999999998</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="17">
         <v>0.13997999999999999</v>
       </c>
     </row>
@@ -717,7 +696,7 @@
       <c r="D4" s="6">
         <v>2.0327000000000001E-2</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="32">
         <v>8.2919999999999999E-4</v>
       </c>
       <c r="F4" s="5">
@@ -726,7 +705,7 @@
       <c r="G4" s="5">
         <v>0.12606000000000001</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="17">
         <v>6.9336999999999996E-2</v>
       </c>
     </row>
@@ -743,7 +722,7 @@
       <c r="D5" s="6">
         <v>1.0166E-2</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="32">
         <v>9.4079999999999994E-5</v>
       </c>
       <c r="F5" s="5">
@@ -752,7 +731,7 @@
       <c r="G5" s="5">
         <v>6.3238000000000003E-2</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="17">
         <v>3.4563000000000003E-2</v>
       </c>
     </row>
@@ -760,13 +739,27 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="34"/>
+      <c r="B6" s="5">
+        <v>4.9372000000000001E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5.3018E-5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5.0831000000000001E-3</v>
+      </c>
+      <c r="E6" s="32">
+        <v>2.3620000000000001E-5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.6638999999999999E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.1663999999999998E-2</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1.7283E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -777,14 +770,14 @@
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
@@ -898,33 +891,33 @@
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="e">
+      <c r="B12" s="8">
         <f t="shared" ref="B12:H12" si="3">B5/B6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="8" t="e">
+        <v>2.0002835615328527</v>
+      </c>
+      <c r="C12" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
+        <v>3.9739333811158475</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="9" t="e">
+        <v>1.9999606539316557</v>
+      </c>
+      <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="8" t="e">
+        <v>3.9830651989839114</v>
+      </c>
+      <c r="F12" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="8" t="e">
+        <v>2.744810240624648</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="9" t="e">
+        <v>1.997157655381506</v>
+      </c>
+      <c r="H12" s="9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.9998264190244752</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -936,14 +929,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
@@ -970,7 +963,7 @@
         <f t="shared" si="4"/>
         <v>0.9932888262325853</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="33">
         <f t="shared" si="4"/>
         <v>2.0358984299093166</v>
       </c>
@@ -982,7 +975,7 @@
         <f t="shared" si="4"/>
         <v>0.96755754085692192</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="18">
         <f t="shared" si="4"/>
         <v>1.0283205637728552</v>
       </c>
@@ -1000,7 +993,7 @@
         <f t="shared" si="5"/>
         <v>0.99865085725239255</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="33">
         <f t="shared" si="5"/>
         <v>0.89126348173977421</v>
       </c>
@@ -1012,7 +1005,7 @@
         <f t="shared" si="5"/>
         <v>0.9880483397846247</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="18">
         <f t="shared" si="5"/>
         <v>1.0135233911557211</v>
       </c>
@@ -1030,7 +1023,7 @@
         <f t="shared" si="6"/>
         <v>0.99964517202878544</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="33">
         <f t="shared" si="6"/>
         <v>3.1397601511604125</v>
       </c>
@@ -1042,40 +1035,40 @@
         <f t="shared" si="6"/>
         <v>0.99524692178644436</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="18">
         <f t="shared" si="6"/>
         <v>1.0043969708768308</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
-      <c r="B18" s="21" t="e">
+      <c r="B18" s="21">
         <f t="shared" ref="B18:H18" si="7">LN(B12)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="21" t="e">
+        <v>1.000204531909614</v>
+      </c>
+      <c r="C18" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="18" t="e">
+        <v>1.9905676874996641</v>
+      </c>
+      <c r="D18" s="18">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="32" t="e">
+        <v>0.99997161753197505</v>
+      </c>
+      <c r="E18" s="33">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="21" t="e">
+        <v>1.9938790954392069</v>
+      </c>
+      <c r="F18" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="21" t="e">
+        <v>1.4567064135755452</v>
+      </c>
+      <c r="G18" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="35" t="e">
+        <v>0.99794822344760825</v>
+      </c>
+      <c r="H18" s="18">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.99987478235978022</v>
       </c>
     </row>
   </sheetData>
@@ -1094,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1116,7 +1109,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
@@ -1257,14 +1250,14 @@
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
@@ -1416,14 +1409,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
@@ -1596,10 +1589,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -1608,7 +1601,7 @@
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1625,7 +1618,7 @@
       <c r="D2" s="17">
         <v>8.0829999999999999E-2</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="34">
         <v>7.0210000000000003E-3</v>
       </c>
       <c r="F2" s="5">
@@ -1634,7 +1627,7 @@
       <c r="G2" s="5">
         <v>0.48907</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="34">
         <v>2.8685E-7</v>
       </c>
     </row>
@@ -1651,7 +1644,7 @@
       <c r="D3" s="17">
         <v>4.0662999999999998E-2</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="34">
         <v>2.8329000000000002E-3</v>
       </c>
       <c r="F3" s="5">
@@ -1660,7 +1653,7 @@
       <c r="G3" s="5">
         <v>0.25004999999999999</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="34">
         <v>1.4231000000000001E-7</v>
       </c>
     </row>
@@ -1677,7 +1670,7 @@
       <c r="D4" s="17">
         <v>2.0451E-2</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="34">
         <v>2.3081999999999998E-3</v>
       </c>
       <c r="F4" s="5">
@@ -1686,7 +1679,7 @@
       <c r="G4" s="5">
         <v>0.12609000000000001</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="34">
         <v>7.6059999999999994E-8</v>
       </c>
     </row>
@@ -1703,7 +1696,7 @@
       <c r="D5" s="17">
         <v>1.0409E-2</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="34">
         <v>2.2393000000000001E-3</v>
       </c>
       <c r="F5" s="5">
@@ -1712,7 +1705,7 @@
       <c r="G5" s="5">
         <v>6.3308000000000003E-2</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="34">
         <v>5.4771000000000001E-8</v>
       </c>
     </row>
@@ -1723,10 +1716,10 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="36"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="36"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1737,14 +1730,14 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
@@ -1896,14 +1889,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
@@ -1930,7 +1923,7 @@
         <f t="shared" si="1"/>
         <v>0.99117419063154955</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="37">
         <f t="shared" si="1"/>
         <v>1.3093968518301193</v>
       </c>
@@ -1942,7 +1935,7 @@
         <f t="shared" si="1"/>
         <v>0.96782436611428357</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="37">
         <f t="shared" si="1"/>
         <v>1.0112594756369946</v>
       </c>
@@ -1960,7 +1953,7 @@
         <f t="shared" si="2"/>
         <v>0.99154526815176491</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="37">
         <f t="shared" si="2"/>
         <v>0.295511440709257</v>
       </c>
@@ -1972,7 +1965,7 @@
         <f t="shared" si="2"/>
         <v>0.98776274272180464</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="37">
         <f t="shared" si="2"/>
         <v>0.90382719827174551</v>
       </c>
@@ -1990,7 +1983,7 @@
         <f t="shared" si="2"/>
         <v>0.97433991431639322</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="37">
         <f t="shared" si="2"/>
         <v>4.3720415844493037E-2</v>
       </c>
@@ -2002,7 +1995,7 @@
         <f t="shared" si="2"/>
         <v>0.99399413795135982</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="37">
         <f t="shared" si="2"/>
         <v>0.47372571787043866</v>
       </c>
@@ -2021,7 +2014,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="39" t="e">
+      <c r="E18" s="37" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2033,7 +2026,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="39" t="e">
+      <c r="H18" s="37" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2076,10 +2069,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -2088,7 +2081,7 @@
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2105,7 +2098,7 @@
       <c r="D2" s="17">
         <v>8.0829999999999999E-2</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="34">
         <v>7.0235999999999996E-3</v>
       </c>
       <c r="F2" s="5">
@@ -2114,7 +2107,7 @@
       <c r="G2" s="5">
         <v>0.48907</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="34">
         <v>2.8685999999999998E-10</v>
       </c>
     </row>
@@ -2131,7 +2124,7 @@
       <c r="D3" s="17">
         <v>4.0663999999999999E-2</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="34">
         <v>2.8463999999999998E-3</v>
       </c>
       <c r="F3" s="5">
@@ -2140,7 +2133,7 @@
       <c r="G3" s="5">
         <v>0.25004999999999999</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="34">
         <v>1.4232999999999999E-10</v>
       </c>
     </row>
@@ -2157,7 +2150,7 @@
       <c r="D4" s="17">
         <v>2.0454E-2</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="34">
         <v>2.3411999999999999E-3</v>
       </c>
       <c r="F4" s="5">
@@ -2166,7 +2159,7 @@
       <c r="G4" s="5">
         <v>0.12609000000000001</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="34">
         <v>7.624E-11</v>
       </c>
     </row>
@@ -2183,7 +2176,7 @@
       <c r="D5" s="17">
         <v>1.0423E-2</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="34">
         <v>2.3058000000000002E-3</v>
       </c>
       <c r="F5" s="5">
@@ -2192,7 +2185,7 @@
       <c r="G5" s="5">
         <v>6.3312999999999994E-2</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="34">
         <v>5.5750999999999997E-11</v>
       </c>
     </row>
@@ -2203,28 +2196,28 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="36"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="36"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="E7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
@@ -2376,14 +2369,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2410,7 +2403,7 @@
         <f t="shared" si="1"/>
         <v>0.99113871176128587</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="37">
         <f t="shared" si="1"/>
         <v>1.3030722687841789</v>
       </c>
@@ -2422,7 +2415,7 @@
         <f t="shared" si="1"/>
         <v>0.96782436611428357</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="37">
         <f t="shared" si="1"/>
         <v>1.011107029559535</v>
       </c>
@@ -2440,7 +2433,7 @@
         <f t="shared" si="2"/>
         <v>0.99136913058734188</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="37">
         <f t="shared" si="2"/>
         <v>0.28189023193697726</v>
       </c>
@@ -2452,7 +2445,7 @@
         <f t="shared" si="2"/>
         <v>0.98776274272180464</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="37">
         <f t="shared" si="2"/>
         <v>0.90061975759937363</v>
       </c>
@@ -2470,7 +2463,7 @@
         <f t="shared" si="2"/>
         <v>0.97261242422139849</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="37">
         <f t="shared" si="2"/>
         <v>2.1980801546223429E-2</v>
       </c>
@@ -2482,7 +2475,7 @@
         <f t="shared" si="2"/>
         <v>0.99388019989672138</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="37">
         <f t="shared" si="2"/>
         <v>0.45155043650904564</v>
       </c>
@@ -2501,7 +2494,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="39" t="e">
+      <c r="E18" s="37" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2513,7 +2506,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="39" t="e">
+      <c r="H18" s="37" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2533,7 +2526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2555,10 +2548,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -2567,7 +2560,7 @@
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2584,7 +2577,7 @@
       <c r="D2" s="17">
         <v>8.0829999999999999E-2</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="34">
         <v>7.0235999999999996E-3</v>
       </c>
       <c r="F2" s="5">
@@ -2593,7 +2586,7 @@
       <c r="G2" s="5">
         <v>0.48907</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="34">
         <v>2.8686E-13</v>
       </c>
     </row>
@@ -2610,7 +2603,7 @@
       <c r="D3" s="17">
         <v>4.0663999999999999E-2</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="34">
         <v>2.8463999999999998E-3</v>
       </c>
       <c r="F3" s="5">
@@ -2619,7 +2612,7 @@
       <c r="G3" s="5">
         <v>0.25004999999999999</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="34">
         <v>1.4233000000000001E-13</v>
       </c>
     </row>
@@ -2636,7 +2629,7 @@
       <c r="D4" s="17">
         <v>2.0454E-2</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="34">
         <v>2.3413000000000002E-3</v>
       </c>
       <c r="F4" s="5">
@@ -2645,7 +2638,7 @@
       <c r="G4" s="5">
         <v>0.12609000000000001</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="34">
         <v>7.6239999999999999E-14</v>
       </c>
     </row>
@@ -2662,7 +2655,7 @@
       <c r="D5" s="17">
         <v>1.0423E-2</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="34">
         <v>2.3058000000000002E-3</v>
       </c>
       <c r="F5" s="5">
@@ -2671,7 +2664,7 @@
       <c r="G5" s="5">
         <v>6.3312999999999994E-2</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="34">
         <v>5.5752000000000002E-14</v>
       </c>
     </row>
@@ -2682,28 +2675,28 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="36"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="36"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="E7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
@@ -2855,14 +2848,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2889,7 +2882,7 @@
         <f t="shared" si="1"/>
         <v>0.99113871176128587</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="37">
         <f t="shared" si="1"/>
         <v>1.3030722687841789</v>
       </c>
@@ -2901,7 +2894,7 @@
         <f t="shared" si="1"/>
         <v>0.96782436611428357</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="37">
         <f t="shared" si="1"/>
         <v>1.011107029559535</v>
       </c>
@@ -2919,7 +2912,7 @@
         <f t="shared" si="2"/>
         <v>0.99136913058734188</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="37">
         <f t="shared" si="2"/>
         <v>0.28182861121979147</v>
       </c>
@@ -2931,7 +2924,7 @@
         <f t="shared" si="2"/>
         <v>0.98776274272180464</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="37">
         <f t="shared" si="2"/>
         <v>0.90061975759937396</v>
       </c>
@@ -2949,7 +2942,7 @@
         <f t="shared" si="2"/>
         <v>0.97261242422139849</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="37">
         <f t="shared" si="2"/>
         <v>2.2042422263409342E-2</v>
       </c>
@@ -2961,7 +2954,7 @@
         <f t="shared" si="2"/>
         <v>0.99388019989672138</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="37">
         <f t="shared" si="2"/>
         <v>0.45152455926734036</v>
       </c>
@@ -2980,7 +2973,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="39" t="e">
+      <c r="E18" s="37" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2992,13 +2985,13 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="39" t="e">
+      <c r="H18" s="37" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D19" s="41"/>
+      <c r="D19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh3.xlsx
+++ b/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="perm=1" sheetId="1" r:id="rId1"/>
@@ -137,21 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -177,6 +162,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,15 +266,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,27 +281,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +618,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -627,7 +627,7 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="D2" s="6">
         <v>8.0854999999999996E-2</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="29">
         <v>6.3070000000000001E-3</v>
       </c>
       <c r="F2" s="5">
@@ -670,7 +670,7 @@
       <c r="D3" s="6">
         <v>4.0615999999999999E-2</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="29">
         <v>1.5380000000000001E-3</v>
       </c>
       <c r="F3" s="5">
@@ -696,7 +696,7 @@
       <c r="D4" s="6">
         <v>2.0327000000000001E-2</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="29">
         <v>8.2919999999999999E-4</v>
       </c>
       <c r="F4" s="5">
@@ -722,7 +722,7 @@
       <c r="D5" s="6">
         <v>1.0166E-2</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="29">
         <v>9.4079999999999994E-5</v>
       </c>
       <c r="F5" s="5">
@@ -748,7 +748,7 @@
       <c r="D6" s="6">
         <v>5.0831000000000001E-3</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="29">
         <v>2.3620000000000001E-5</v>
       </c>
       <c r="F6" s="5">
@@ -770,14 +770,14 @@
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
@@ -929,14 +929,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
@@ -963,7 +963,7 @@
         <f t="shared" si="4"/>
         <v>0.9932888262325853</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="30">
         <f t="shared" si="4"/>
         <v>2.0358984299093166</v>
       </c>
@@ -993,7 +993,7 @@
         <f t="shared" si="5"/>
         <v>0.99865085725239255</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="30">
         <f t="shared" si="5"/>
         <v>0.89126348173977421</v>
       </c>
@@ -1023,7 +1023,7 @@
         <f t="shared" si="6"/>
         <v>0.99964517202878544</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="30">
         <f t="shared" si="6"/>
         <v>3.1397601511604125</v>
       </c>
@@ -1054,7 +1054,7 @@
         <f t="shared" si="7"/>
         <v>0.99997161753197505</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="30">
         <f t="shared" si="7"/>
         <v>1.9938790954392069</v>
       </c>
@@ -1084,6 +1084,500 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7.9694000000000001E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.1899E-2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>8.0798999999999996E-2</v>
+      </c>
+      <c r="E2" s="38">
+        <v>6.6531999999999997E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.14563000000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="H2" s="17">
+        <v>2.8678999999999998E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.9604E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.2009E-3</v>
+      </c>
+      <c r="D3" s="17">
+        <v>4.0599000000000003E-2</v>
+      </c>
+      <c r="E3" s="38">
+        <v>1.6829E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.4012999999999999E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.25006</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1.4083999999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.9762999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.3228999999999996E-4</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2.0324999999999999E-2</v>
+      </c>
+      <c r="E4" s="38">
+        <v>4.2827000000000002E-4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.9917000000000001E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.12606000000000001</v>
+      </c>
+      <c r="H4" s="17">
+        <v>6.9812000000000002E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.8759E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.1159E-4</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1.0165E-2</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1.1394E-4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7.3127000000000001E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.3238000000000003E-2</v>
+      </c>
+      <c r="H5" s="17">
+        <v>3.4755000000000002E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.9372000000000001E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5.3260999999999997E-5</v>
+      </c>
+      <c r="D6" s="17">
+        <v>5.0831000000000001E-3</v>
+      </c>
+      <c r="E6" s="38">
+        <v>3.5559999999999998E-5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.6640000000000001E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.1663999999999998E-2</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1.7340999999999999E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="19"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" ref="B9:H12" si="0">B2/B3</f>
+        <v>2.0122714877285124</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.7173919835046392</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9901721717283674</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9534137500742763</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6962027660007779</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9559305766616011</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.036282306163022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0039467692152</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8458950606158915</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9974907749077493</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9295304364069392</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7119044032735853</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9836585752816118</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>2.017418208903913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0011340738565599</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.933503473699135</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.999508116084604</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>3.7587326663156051</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7236178155811124</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9934216768398747</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0086893972090345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0003038159280564</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9727004750192449</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9997639235899354</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>3.2041619797525311</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7450075075075073</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.997157655381506</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0042096764892454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="12">
+        <f>LN(B9)/LN(2)</f>
+        <v>1.0088249609967421</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
+        <v>1.8942908224051398</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99289324511771859</v>
+      </c>
+      <c r="E15" s="39">
+        <f t="shared" si="1"/>
+        <v>1.9830989503368177</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="1"/>
+        <v>1.43092899744847</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.96785516452149722</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0259375876747741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="12">
+        <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
+        <v>1.0028441867720401</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9433193977286363</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.99818884031191324</v>
+      </c>
+      <c r="E16" s="39">
+        <f t="shared" si="2"/>
+        <v>1.9743569263411274</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4393063232552545</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.98816373230945243</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="2"/>
+        <v>1.0125101842833886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0008178295165688</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9758148576567103</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="2"/>
+        <v>0.99964513711765757</v>
+      </c>
+      <c r="E17" s="39">
+        <f t="shared" si="2"/>
+        <v>1.9102463097156259</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4455242752115192</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99524692178644436</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="2"/>
+        <v>1.0062544979937644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.000219140222224</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9901200243613029</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" si="2"/>
+        <v>0.99982969681562561</v>
+      </c>
+      <c r="E18" s="39">
+        <f t="shared" si="2"/>
+        <v>1.6799470820408839</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4568100949605429</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99794822344760825</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="2"/>
+        <v>1.0030334483570911</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -1109,10 +1603,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -1121,7 +1615,7 @@
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1136,19 +1630,19 @@
         <v>1.1899E-2</v>
       </c>
       <c r="D2" s="17">
-        <v>8.0798999999999996E-2</v>
-      </c>
-      <c r="E2" s="24">
-        <v>6.6531999999999997E-3</v>
+        <v>8.0829999999999999E-2</v>
+      </c>
+      <c r="E2" s="31">
+        <v>7.0210000000000003E-3</v>
       </c>
       <c r="F2" s="5">
         <v>0.14563000000000001</v>
       </c>
       <c r="G2" s="5">
-        <v>0.48909999999999998</v>
-      </c>
-      <c r="H2" s="24">
-        <v>2.8678999999999998E-4</v>
+        <v>0.48907</v>
+      </c>
+      <c r="H2" s="31">
+        <v>2.8685E-7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1159,22 +1653,22 @@
         <v>3.9604E-2</v>
       </c>
       <c r="C3" s="5">
-        <v>3.2009E-3</v>
+        <v>3.2009999999999999E-3</v>
       </c>
       <c r="D3" s="17">
-        <v>4.0599000000000003E-2</v>
-      </c>
-      <c r="E3" s="24">
-        <v>1.6829E-3</v>
+        <v>4.0662999999999998E-2</v>
+      </c>
+      <c r="E3" s="31">
+        <v>2.8329000000000002E-3</v>
       </c>
       <c r="F3" s="5">
         <v>5.4012999999999999E-2</v>
       </c>
       <c r="G3" s="5">
-        <v>0.25006</v>
-      </c>
-      <c r="H3" s="24">
-        <v>1.4083999999999999E-4</v>
+        <v>0.25004999999999999</v>
+      </c>
+      <c r="H3" s="31">
+        <v>1.4231000000000001E-7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1185,22 +1679,22 @@
         <v>1.9762999999999999E-2</v>
       </c>
       <c r="C4" s="5">
-        <v>8.3228999999999996E-4</v>
+        <v>8.3233000000000005E-4</v>
       </c>
       <c r="D4" s="17">
-        <v>2.0324999999999999E-2</v>
-      </c>
-      <c r="E4" s="24">
-        <v>4.2827000000000002E-4</v>
+        <v>2.0451E-2</v>
+      </c>
+      <c r="E4" s="31">
+        <v>2.3081999999999998E-3</v>
       </c>
       <c r="F4" s="5">
         <v>1.9917000000000001E-2</v>
       </c>
       <c r="G4" s="5">
-        <v>0.12606000000000001</v>
-      </c>
-      <c r="H4" s="24">
-        <v>6.9812000000000002E-5</v>
+        <v>0.12609000000000001</v>
+      </c>
+      <c r="H4" s="31">
+        <v>7.6059999999999994E-8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1211,22 +1705,22 @@
         <v>9.8759E-3</v>
       </c>
       <c r="C5" s="5">
-        <v>2.1159E-4</v>
+        <v>2.1160999999999999E-4</v>
       </c>
       <c r="D5" s="17">
-        <v>1.0165E-2</v>
-      </c>
-      <c r="E5" s="24">
-        <v>1.1394E-4</v>
+        <v>1.0409E-2</v>
+      </c>
+      <c r="E5" s="31">
+        <v>2.2393000000000001E-3</v>
       </c>
       <c r="F5" s="5">
         <v>7.3127000000000001E-3</v>
       </c>
       <c r="G5" s="5">
-        <v>6.3238000000000003E-2</v>
-      </c>
-      <c r="H5" s="24">
-        <v>3.4755000000000002E-5</v>
+        <v>6.3308000000000003E-2</v>
+      </c>
+      <c r="H5" s="31">
+        <v>5.4771000000000001E-8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1236,28 +1730,28 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="24"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
@@ -1278,15 +1772,15 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>3.7173919835046392</v>
+        <v>3.7172758512964701</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>1.9901721717283674</v>
+        <v>1.9878021788849816</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>3.9534137500742763</v>
+        <v>2.4783790462070669</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
@@ -1294,11 +1788,11 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>1.9559305766616011</v>
+        <v>1.955888822235553</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>2.036282306163022</v>
+        <v>2.0156700161618999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1311,15 +1805,15 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>3.8458950606158915</v>
+        <v>3.8458303797772513</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>1.9974907749077493</v>
+        <v>1.9883135299007382</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>3.9295304364069392</v>
+        <v>1.2273199896022877</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
@@ -1327,11 +1821,11 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>1.9836585752816118</v>
+        <v>1.9831073043064475</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>2.017418208903913</v>
+        <v>1.8710228766763084</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1344,15 +1838,15 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>3.933503473699135</v>
+        <v>3.933320731534427</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>1.999508116084604</v>
+        <v>1.9647420501489097</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>3.7587326663156051</v>
+        <v>1.0307685437413476</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
@@ -1360,11 +1854,11 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>1.9934216768398747</v>
+        <v>1.9916914134074684</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>2.0086893972090345</v>
+        <v>1.3886910956528089</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1409,14 +1903,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
@@ -1437,15 +1931,15 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>1.8942908224051398</v>
+        <v>1.8942457515655138</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="1"/>
-        <v>0.99289324511771859</v>
-      </c>
-      <c r="E15" s="25">
+        <v>0.99117419063154955</v>
+      </c>
+      <c r="E15" s="34">
         <f t="shared" si="1"/>
-        <v>1.9830989503368177</v>
+        <v>1.3093968518301193</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="1"/>
@@ -1453,11 +1947,11 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>0.96785516452149722</v>
-      </c>
-      <c r="H15" s="25">
+        <v>0.96782436611428357</v>
+      </c>
+      <c r="H15" s="34">
         <f t="shared" si="1"/>
-        <v>1.0259375876747741</v>
+        <v>1.0112594756369946</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1467,15 +1961,15 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" si="2"/>
-        <v>1.9433193977286363</v>
+        <v>1.9432951340635141</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="2"/>
-        <v>0.99818884031191324</v>
-      </c>
-      <c r="E16" s="25">
-        <f t="shared" si="2"/>
-        <v>1.9743569263411274</v>
+        <v>0.99154526815176491</v>
+      </c>
+      <c r="E16" s="34">
+        <f t="shared" si="2"/>
+        <v>0.295511440709257</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="2"/>
@@ -1483,11 +1977,11 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" si="2"/>
-        <v>0.98816373230945243</v>
-      </c>
-      <c r="H16" s="25">
-        <f t="shared" si="2"/>
-        <v>1.0125101842833886</v>
+        <v>0.98776274272180464</v>
+      </c>
+      <c r="H16" s="34">
+        <f t="shared" si="2"/>
+        <v>0.90382719827174551</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1497,15 +1991,15 @@
       </c>
       <c r="C17" s="12">
         <f t="shared" si="2"/>
-        <v>1.9758148576567103</v>
+        <v>1.9757478315714807</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" si="2"/>
-        <v>0.99964513711765757</v>
-      </c>
-      <c r="E17" s="25">
-        <f t="shared" si="2"/>
-        <v>1.9102463097156259</v>
+        <v>0.97433991431639322</v>
+      </c>
+      <c r="E17" s="34">
+        <f t="shared" si="2"/>
+        <v>4.3720415844493037E-2</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="2"/>
@@ -1513,11 +2007,11 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" si="2"/>
-        <v>0.99524692178644436</v>
-      </c>
-      <c r="H17" s="25">
-        <f t="shared" si="2"/>
-        <v>1.0062544979937644</v>
+        <v>0.99399413795135982</v>
+      </c>
+      <c r="H17" s="34">
+        <f t="shared" si="2"/>
+        <v>0.47372571787043866</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1534,7 +2028,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="25" t="e">
+      <c r="E18" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1546,487 +2040,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" activeCellId="3" sqref="E1:E6 E15:E18 H1:H6 H15:H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
-        <v>7.9694000000000001E-2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.1899E-2</v>
-      </c>
-      <c r="D2" s="17">
-        <v>8.0829999999999999E-2</v>
-      </c>
-      <c r="E2" s="34">
-        <v>7.0210000000000003E-3</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.14563000000000001</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.48907</v>
-      </c>
-      <c r="H2" s="34">
-        <v>2.8685E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3.9604E-2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3.2009999999999999E-3</v>
-      </c>
-      <c r="D3" s="17">
-        <v>4.0662999999999998E-2</v>
-      </c>
-      <c r="E3" s="34">
-        <v>2.8329000000000002E-3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5.4012999999999999E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.25004999999999999</v>
-      </c>
-      <c r="H3" s="34">
-        <v>1.4231000000000001E-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.9762999999999999E-2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8.3233000000000005E-4</v>
-      </c>
-      <c r="D4" s="17">
-        <v>2.0451E-2</v>
-      </c>
-      <c r="E4" s="34">
-        <v>2.3081999999999998E-3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.9917000000000001E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.12609000000000001</v>
-      </c>
-      <c r="H4" s="34">
-        <v>7.6059999999999994E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5">
-        <v>9.8759E-3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.1160999999999999E-4</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1.0409E-2</v>
-      </c>
-      <c r="E5" s="34">
-        <v>2.2393000000000001E-3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>7.3127000000000001E-3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>6.3308000000000003E-2</v>
-      </c>
-      <c r="H5" s="34">
-        <v>5.4771000000000001E-8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:H12" si="0">B2/B3</f>
-        <v>2.0122714877285124</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>3.7172758512964701</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9878021788849816</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>2.4783790462070669</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>2.6962027660007779</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.955888822235553</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0156700161618999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0039467692152</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>3.8458303797772513</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9883135299007382</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.2273199896022877</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>2.7119044032735853</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9831073043064475</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.8710228766763084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0011340738565599</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>3.933320731534427</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9647420501489097</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0307685437413476</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>2.7236178155811124</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9916914134074684</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.3886910956528089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="12">
-        <f>LN(B9)/LN(2)</f>
-        <v>1.0088249609967421</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>1.8942457515655138</v>
-      </c>
-      <c r="D15" s="18">
-        <f t="shared" si="1"/>
-        <v>0.99117419063154955</v>
-      </c>
-      <c r="E15" s="37">
-        <f t="shared" si="1"/>
-        <v>1.3093968518301193</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="1"/>
-        <v>1.43092899744847</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.96782436611428357</v>
-      </c>
-      <c r="H15" s="37">
-        <f t="shared" si="1"/>
-        <v>1.0112594756369946</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12">
-        <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
-        <v>1.0028441867720401</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" si="2"/>
-        <v>1.9432951340635141</v>
-      </c>
-      <c r="D16" s="18">
-        <f t="shared" si="2"/>
-        <v>0.99154526815176491</v>
-      </c>
-      <c r="E16" s="37">
-        <f t="shared" si="2"/>
-        <v>0.295511440709257</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="2"/>
-        <v>1.4393063232552545</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.98776274272180464</v>
-      </c>
-      <c r="H16" s="37">
-        <f t="shared" si="2"/>
-        <v>0.90382719827174551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.0008178295165688</v>
-      </c>
-      <c r="C17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.9757478315714807</v>
-      </c>
-      <c r="D17" s="18">
-        <f t="shared" si="2"/>
-        <v>0.97433991431639322</v>
-      </c>
-      <c r="E17" s="37">
-        <f t="shared" si="2"/>
-        <v>4.3720415844493037E-2</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.4455242752115192</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="2"/>
-        <v>0.99399413795135982</v>
-      </c>
-      <c r="H17" s="37">
-        <f t="shared" si="2"/>
-        <v>0.47372571787043866</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="37" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="37" t="e">
+      <c r="H18" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2069,10 +2083,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -2081,7 +2095,7 @@
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2098,7 +2112,7 @@
       <c r="D2" s="17">
         <v>8.0829999999999999E-2</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="31">
         <v>7.0235999999999996E-3</v>
       </c>
       <c r="F2" s="5">
@@ -2107,7 +2121,7 @@
       <c r="G2" s="5">
         <v>0.48907</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="31">
         <v>2.8685999999999998E-10</v>
       </c>
     </row>
@@ -2124,7 +2138,7 @@
       <c r="D3" s="17">
         <v>4.0663999999999999E-2</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="31">
         <v>2.8463999999999998E-3</v>
       </c>
       <c r="F3" s="5">
@@ -2133,7 +2147,7 @@
       <c r="G3" s="5">
         <v>0.25004999999999999</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="31">
         <v>1.4232999999999999E-10</v>
       </c>
     </row>
@@ -2150,7 +2164,7 @@
       <c r="D4" s="17">
         <v>2.0454E-2</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="31">
         <v>2.3411999999999999E-3</v>
       </c>
       <c r="F4" s="5">
@@ -2159,7 +2173,7 @@
       <c r="G4" s="5">
         <v>0.12609000000000001</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="31">
         <v>7.624E-11</v>
       </c>
     </row>
@@ -2176,7 +2190,7 @@
       <c r="D5" s="17">
         <v>1.0423E-2</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>2.3058000000000002E-3</v>
       </c>
       <c r="F5" s="5">
@@ -2185,7 +2199,7 @@
       <c r="G5" s="5">
         <v>6.3312999999999994E-2</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="31">
         <v>5.5750999999999997E-11</v>
       </c>
     </row>
@@ -2196,28 +2210,28 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="34"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="34"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="E7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
@@ -2369,14 +2383,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2403,7 +2417,7 @@
         <f t="shared" si="1"/>
         <v>0.99113871176128587</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="34">
         <f t="shared" si="1"/>
         <v>1.3030722687841789</v>
       </c>
@@ -2415,7 +2429,7 @@
         <f t="shared" si="1"/>
         <v>0.96782436611428357</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="34">
         <f t="shared" si="1"/>
         <v>1.011107029559535</v>
       </c>
@@ -2433,7 +2447,7 @@
         <f t="shared" si="2"/>
         <v>0.99136913058734188</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="34">
         <f t="shared" si="2"/>
         <v>0.28189023193697726</v>
       </c>
@@ -2445,7 +2459,7 @@
         <f t="shared" si="2"/>
         <v>0.98776274272180464</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="34">
         <f t="shared" si="2"/>
         <v>0.90061975759937363</v>
       </c>
@@ -2463,7 +2477,7 @@
         <f t="shared" si="2"/>
         <v>0.97261242422139849</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="34">
         <f t="shared" si="2"/>
         <v>2.1980801546223429E-2</v>
       </c>
@@ -2475,7 +2489,7 @@
         <f t="shared" si="2"/>
         <v>0.99388019989672138</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="34">
         <f t="shared" si="2"/>
         <v>0.45155043650904564</v>
       </c>
@@ -2494,7 +2508,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="37" t="e">
+      <c r="E18" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2506,7 +2520,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="37" t="e">
+      <c r="H18" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2548,10 +2562,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -2560,7 +2574,7 @@
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2577,7 +2591,7 @@
       <c r="D2" s="17">
         <v>8.0829999999999999E-2</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="31">
         <v>7.0235999999999996E-3</v>
       </c>
       <c r="F2" s="5">
@@ -2586,7 +2600,7 @@
       <c r="G2" s="5">
         <v>0.48907</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="31">
         <v>2.8686E-13</v>
       </c>
     </row>
@@ -2603,7 +2617,7 @@
       <c r="D3" s="17">
         <v>4.0663999999999999E-2</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="31">
         <v>2.8463999999999998E-3</v>
       </c>
       <c r="F3" s="5">
@@ -2612,7 +2626,7 @@
       <c r="G3" s="5">
         <v>0.25004999999999999</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="31">
         <v>1.4233000000000001E-13</v>
       </c>
     </row>
@@ -2629,7 +2643,7 @@
       <c r="D4" s="17">
         <v>2.0454E-2</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="31">
         <v>2.3413000000000002E-3</v>
       </c>
       <c r="F4" s="5">
@@ -2638,7 +2652,7 @@
       <c r="G4" s="5">
         <v>0.12609000000000001</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="31">
         <v>7.6239999999999999E-14</v>
       </c>
     </row>
@@ -2655,7 +2669,7 @@
       <c r="D5" s="17">
         <v>1.0423E-2</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>2.3058000000000002E-3</v>
       </c>
       <c r="F5" s="5">
@@ -2664,7 +2678,7 @@
       <c r="G5" s="5">
         <v>6.3312999999999994E-2</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="31">
         <v>5.5752000000000002E-14</v>
       </c>
     </row>
@@ -2675,28 +2689,28 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="34"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="34"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="E7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
@@ -2848,14 +2862,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2882,7 +2896,7 @@
         <f t="shared" si="1"/>
         <v>0.99113871176128587</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="34">
         <f t="shared" si="1"/>
         <v>1.3030722687841789</v>
       </c>
@@ -2894,7 +2908,7 @@
         <f t="shared" si="1"/>
         <v>0.96782436611428357</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="34">
         <f t="shared" si="1"/>
         <v>1.011107029559535</v>
       </c>
@@ -2912,7 +2926,7 @@
         <f t="shared" si="2"/>
         <v>0.99136913058734188</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="34">
         <f t="shared" si="2"/>
         <v>0.28182861121979147</v>
       </c>
@@ -2924,7 +2938,7 @@
         <f t="shared" si="2"/>
         <v>0.98776274272180464</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="34">
         <f t="shared" si="2"/>
         <v>0.90061975759937396</v>
       </c>
@@ -2942,7 +2956,7 @@
         <f t="shared" si="2"/>
         <v>0.97261242422139849</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="34">
         <f t="shared" si="2"/>
         <v>2.2042422263409342E-2</v>
       </c>
@@ -2954,7 +2968,7 @@
         <f t="shared" si="2"/>
         <v>0.99388019989672138</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="34">
         <f t="shared" si="2"/>
         <v>0.45152455926734036</v>
       </c>
@@ -2973,7 +2987,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="37" t="e">
+      <c r="E18" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2985,13 +2999,13 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="37" t="e">
+      <c r="H18" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D19" s="39"/>
+      <c r="D19" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh3.xlsx
+++ b/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="perm=1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +161,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -214,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,11 +305,17 @@
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -302,15 +323,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,10 +1131,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -1138,7 +1160,7 @@
       <c r="D2" s="17">
         <v>8.0798999999999996E-2</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="40">
         <v>6.6531999999999997E-3</v>
       </c>
       <c r="F2" s="5">
@@ -1164,7 +1186,7 @@
       <c r="D3" s="17">
         <v>4.0599000000000003E-2</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="40">
         <v>1.6829E-3</v>
       </c>
       <c r="F3" s="5">
@@ -1190,7 +1212,7 @@
       <c r="D4" s="17">
         <v>2.0324999999999999E-2</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="40">
         <v>4.2827000000000002E-4</v>
       </c>
       <c r="F4" s="5">
@@ -1216,7 +1238,7 @@
       <c r="D5" s="17">
         <v>1.0165E-2</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="40">
         <v>1.1394E-4</v>
       </c>
       <c r="F5" s="5">
@@ -1242,7 +1264,7 @@
       <c r="D6" s="17">
         <v>5.0831000000000001E-3</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="40">
         <v>3.5559999999999998E-5</v>
       </c>
       <c r="F6" s="5">
@@ -1457,7 +1479,7 @@
         <f t="shared" si="1"/>
         <v>0.99289324511771859</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="41">
         <f t="shared" si="1"/>
         <v>1.9830989503368177</v>
       </c>
@@ -1487,7 +1509,7 @@
         <f t="shared" si="2"/>
         <v>0.99818884031191324</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="41">
         <f t="shared" si="2"/>
         <v>1.9743569263411274</v>
       </c>
@@ -1517,7 +1539,7 @@
         <f t="shared" si="2"/>
         <v>0.99964513711765757</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="41">
         <f t="shared" si="2"/>
         <v>1.9102463097156259</v>
       </c>
@@ -1548,7 +1570,7 @@
         <f t="shared" si="2"/>
         <v>0.99982969681562561</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="41">
         <f t="shared" si="2"/>
         <v>1.6799470820408839</v>
       </c>
@@ -1578,6 +1600,500 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" activeCellId="1" sqref="D1:D6 D15:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7.9694000000000001E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.1899E-2</v>
+      </c>
+      <c r="D2" s="31">
+        <v>8.0829999999999999E-2</v>
+      </c>
+      <c r="E2" s="33">
+        <v>7.0210000000000003E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.14563000000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.48907</v>
+      </c>
+      <c r="H2" s="33">
+        <v>2.8685E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.9604E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.2009999999999999E-3</v>
+      </c>
+      <c r="D3" s="31">
+        <v>4.0662999999999998E-2</v>
+      </c>
+      <c r="E3" s="33">
+        <v>2.8329000000000002E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.4012999999999999E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.25004999999999999</v>
+      </c>
+      <c r="H3" s="33">
+        <v>1.4231000000000001E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.9762999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.3233000000000005E-4</v>
+      </c>
+      <c r="D4" s="31">
+        <v>2.0451E-2</v>
+      </c>
+      <c r="E4" s="33">
+        <v>2.3081999999999998E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.9917000000000001E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.12609000000000001</v>
+      </c>
+      <c r="H4" s="33">
+        <v>7.6059999999999994E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.8759E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.1160999999999999E-4</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1.0409E-2</v>
+      </c>
+      <c r="E5" s="33">
+        <v>2.2393000000000001E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7.3127000000000001E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.3308000000000003E-2</v>
+      </c>
+      <c r="H5" s="33">
+        <v>5.4771000000000001E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.9372000000000001E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5.3270000000000003E-5</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5.5279999999999999E-3</v>
+      </c>
+      <c r="E6" s="33">
+        <v>2.1730999999999999E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.6640000000000001E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.1808000000000003E-2</v>
+      </c>
+      <c r="H6" s="33">
+        <v>6.0714999999999998E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" ref="B9:H12" si="0">B2/B3</f>
+        <v>2.0122714877285124</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.7172758512964701</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9878021788849816</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4783790462070669</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6962027660007779</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.955888822235553</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0156700161618999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0039467692152</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8458303797772513</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9883135299007382</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2273199896022877</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7119044032735853</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9831073043064475</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8710228766763084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0011340738565599</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.933320731534427</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9647420501489097</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0307685437413476</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7236178155811124</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9916914134074684</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3886910956528089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0003038159280564</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9724047306176078</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.882959479015919</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0304633933090976</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7450075075075073</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9903169014084505</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.90209997529440833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="12">
+        <f>LN(B9)/LN(2)</f>
+        <v>1.0088249609967421</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
+        <v>1.8942457515655138</v>
+      </c>
+      <c r="D15" s="32">
+        <f t="shared" si="1"/>
+        <v>0.99117419063154955</v>
+      </c>
+      <c r="E15" s="36">
+        <f t="shared" si="1"/>
+        <v>1.3093968518301193</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="1"/>
+        <v>1.43092899744847</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.96782436611428357</v>
+      </c>
+      <c r="H15" s="36">
+        <f t="shared" si="1"/>
+        <v>1.0112594756369946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="12">
+        <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
+        <v>1.0028441867720401</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9432951340635141</v>
+      </c>
+      <c r="D16" s="32">
+        <f t="shared" si="2"/>
+        <v>0.99154526815176491</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" si="2"/>
+        <v>0.295511440709257</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4393063232552545</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.98776274272180464</v>
+      </c>
+      <c r="H16" s="36">
+        <f t="shared" si="2"/>
+        <v>0.90382719827174551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0008178295165688</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9757478315714807</v>
+      </c>
+      <c r="D17" s="32">
+        <f t="shared" si="2"/>
+        <v>0.97433991431639322</v>
+      </c>
+      <c r="E17" s="36">
+        <f t="shared" si="2"/>
+        <v>4.3720415844493037E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4455242752115192</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99399413795135982</v>
+      </c>
+      <c r="H17" s="36">
+        <f t="shared" si="2"/>
+        <v>0.47372571787043866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.000219140222224</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9900126201241615</v>
+      </c>
+      <c r="D18" s="32">
+        <f t="shared" si="2"/>
+        <v>0.91300195372176429</v>
+      </c>
+      <c r="E18" s="36">
+        <f t="shared" si="2"/>
+        <v>4.329325477577959E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4568100949605429</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99299815724684681</v>
+      </c>
+      <c r="H18" s="36">
+        <f t="shared" si="2"/>
+        <v>-0.14864076576502647</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -1603,10 +2119,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -1615,7 +2131,7 @@
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1632,8 +2148,8 @@
       <c r="D2" s="17">
         <v>8.0829999999999999E-2</v>
       </c>
-      <c r="E2" s="31">
-        <v>7.0210000000000003E-3</v>
+      <c r="E2" s="33">
+        <v>7.0235999999999996E-3</v>
       </c>
       <c r="F2" s="5">
         <v>0.14563000000000001</v>
@@ -1641,8 +2157,8 @@
       <c r="G2" s="5">
         <v>0.48907</v>
       </c>
-      <c r="H2" s="31">
-        <v>2.8685E-7</v>
+      <c r="H2" s="33">
+        <v>2.8685999999999998E-10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1656,10 +2172,10 @@
         <v>3.2009999999999999E-3</v>
       </c>
       <c r="D3" s="17">
-        <v>4.0662999999999998E-2</v>
-      </c>
-      <c r="E3" s="31">
-        <v>2.8329000000000002E-3</v>
+        <v>4.0663999999999999E-2</v>
+      </c>
+      <c r="E3" s="33">
+        <v>2.8463999999999998E-3</v>
       </c>
       <c r="F3" s="5">
         <v>5.4012999999999999E-2</v>
@@ -1667,8 +2183,8 @@
       <c r="G3" s="5">
         <v>0.25004999999999999</v>
       </c>
-      <c r="H3" s="31">
-        <v>1.4231000000000001E-7</v>
+      <c r="H3" s="33">
+        <v>1.4232999999999999E-10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1682,10 +2198,10 @@
         <v>8.3233000000000005E-4</v>
       </c>
       <c r="D4" s="17">
-        <v>2.0451E-2</v>
-      </c>
-      <c r="E4" s="31">
-        <v>2.3081999999999998E-3</v>
+        <v>2.0454E-2</v>
+      </c>
+      <c r="E4" s="33">
+        <v>2.3411999999999999E-3</v>
       </c>
       <c r="F4" s="5">
         <v>1.9917000000000001E-2</v>
@@ -1693,8 +2209,8 @@
       <c r="G4" s="5">
         <v>0.12609000000000001</v>
       </c>
-      <c r="H4" s="31">
-        <v>7.6059999999999994E-8</v>
+      <c r="H4" s="33">
+        <v>7.624E-11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1708,19 +2224,19 @@
         <v>2.1160999999999999E-4</v>
       </c>
       <c r="D5" s="17">
-        <v>1.0409E-2</v>
-      </c>
-      <c r="E5" s="31">
-        <v>2.2393000000000001E-3</v>
+        <v>1.0423E-2</v>
+      </c>
+      <c r="E5" s="33">
+        <v>2.3058000000000002E-3</v>
       </c>
       <c r="F5" s="5">
         <v>7.3127000000000001E-3</v>
       </c>
       <c r="G5" s="5">
-        <v>6.3308000000000003E-2</v>
-      </c>
-      <c r="H5" s="31">
-        <v>5.4771000000000001E-8</v>
+        <v>6.3312999999999994E-2</v>
+      </c>
+      <c r="H5" s="33">
+        <v>5.5750999999999997E-11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1730,18 +2246,18 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="31"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="31"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="E7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
@@ -1776,11 +2292,11 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>1.9878021788849816</v>
+        <v>1.9877532952980523</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>2.4783790462070669</v>
+        <v>2.4675379426644182</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
@@ -1792,7 +2308,7 @@
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>2.0156700161618999</v>
+        <v>2.0154570364645541</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1809,11 +2325,11 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>1.9883135299007382</v>
+        <v>1.9880707929989243</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>1.2273199896022877</v>
+        <v>1.2157867760123013</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
@@ -1825,7 +2341,7 @@
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>1.8710228766763084</v>
+        <v>1.8668677859391394</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1842,11 +2358,11 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>1.9647420501489097</v>
+        <v>1.9623908663532572</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>1.0307685437413476</v>
+        <v>1.0153525891230808</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
@@ -1854,11 +2370,11 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>1.9916914134074684</v>
+        <v>1.9915341241135316</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>1.3886910956528089</v>
+        <v>1.3675091029757314</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1935,11 +2451,11 @@
       </c>
       <c r="D15" s="18">
         <f t="shared" si="1"/>
-        <v>0.99117419063154955</v>
-      </c>
-      <c r="E15" s="34">
+        <v>0.99113871176128587</v>
+      </c>
+      <c r="E15" s="36">
         <f t="shared" si="1"/>
-        <v>1.3093968518301193</v>
+        <v>1.3030722687841789</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="1"/>
@@ -1949,9 +2465,9 @@
         <f t="shared" si="1"/>
         <v>0.96782436611428357</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="36">
         <f t="shared" si="1"/>
-        <v>1.0112594756369946</v>
+        <v>1.011107029559535</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1965,11 +2481,11 @@
       </c>
       <c r="D16" s="18">
         <f t="shared" si="2"/>
-        <v>0.99154526815176491</v>
-      </c>
-      <c r="E16" s="34">
-        <f t="shared" si="2"/>
-        <v>0.295511440709257</v>
+        <v>0.99136913058734188</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" si="2"/>
+        <v>0.28189023193697726</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="2"/>
@@ -1979,9 +2495,9 @@
         <f t="shared" si="2"/>
         <v>0.98776274272180464</v>
       </c>
-      <c r="H16" s="34">
-        <f t="shared" si="2"/>
-        <v>0.90382719827174551</v>
+      <c r="H16" s="36">
+        <f t="shared" si="2"/>
+        <v>0.90061975759937363</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1995,11 +2511,11 @@
       </c>
       <c r="D17" s="18">
         <f t="shared" si="2"/>
-        <v>0.97433991431639322</v>
-      </c>
-      <c r="E17" s="34">
-        <f t="shared" si="2"/>
-        <v>4.3720415844493037E-2</v>
+        <v>0.97261242422139849</v>
+      </c>
+      <c r="E17" s="36">
+        <f t="shared" si="2"/>
+        <v>2.1980801546223429E-2</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="2"/>
@@ -2007,11 +2523,11 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" si="2"/>
-        <v>0.99399413795135982</v>
-      </c>
-      <c r="H17" s="34">
-        <f t="shared" si="2"/>
-        <v>0.47372571787043866</v>
+        <v>0.99388019989672138</v>
+      </c>
+      <c r="H17" s="36">
+        <f t="shared" si="2"/>
+        <v>0.45155043650904564</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2028,7 +2544,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="34" t="e">
+      <c r="E18" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2040,487 +2556,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="34" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
-        <v>7.9694000000000001E-2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.1899E-2</v>
-      </c>
-      <c r="D2" s="17">
-        <v>8.0829999999999999E-2</v>
-      </c>
-      <c r="E2" s="31">
-        <v>7.0235999999999996E-3</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.14563000000000001</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.48907</v>
-      </c>
-      <c r="H2" s="31">
-        <v>2.8685999999999998E-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3.9604E-2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3.2009999999999999E-3</v>
-      </c>
-      <c r="D3" s="17">
-        <v>4.0663999999999999E-2</v>
-      </c>
-      <c r="E3" s="31">
-        <v>2.8463999999999998E-3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5.4012999999999999E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.25004999999999999</v>
-      </c>
-      <c r="H3" s="31">
-        <v>1.4232999999999999E-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.9762999999999999E-2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8.3233000000000005E-4</v>
-      </c>
-      <c r="D4" s="17">
-        <v>2.0454E-2</v>
-      </c>
-      <c r="E4" s="31">
-        <v>2.3411999999999999E-3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.9917000000000001E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.12609000000000001</v>
-      </c>
-      <c r="H4" s="31">
-        <v>7.624E-11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5">
-        <v>9.8759E-3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.1160999999999999E-4</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1.0423E-2</v>
-      </c>
-      <c r="E5" s="31">
-        <v>2.3058000000000002E-3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>7.3127000000000001E-3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>6.3312999999999994E-2</v>
-      </c>
-      <c r="H5" s="31">
-        <v>5.5750999999999997E-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="35"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:H12" si="0">B2/B3</f>
-        <v>2.0122714877285124</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>3.7172758512964701</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9877532952980523</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>2.4675379426644182</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>2.6962027660007779</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.955888822235553</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0154570364645541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0039467692152</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>3.8458303797772513</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9880707929989243</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.2157867760123013</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>2.7119044032735853</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9831073043064475</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.8668677859391394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0011340738565599</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>3.933320731534427</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9623908663532572</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0153525891230808</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>2.7236178155811124</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9915341241135316</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.3675091029757314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="12">
-        <f>LN(B9)/LN(2)</f>
-        <v>1.0088249609967421</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>1.8942457515655138</v>
-      </c>
-      <c r="D15" s="18">
-        <f t="shared" si="1"/>
-        <v>0.99113871176128587</v>
-      </c>
-      <c r="E15" s="34">
-        <f t="shared" si="1"/>
-        <v>1.3030722687841789</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="1"/>
-        <v>1.43092899744847</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.96782436611428357</v>
-      </c>
-      <c r="H15" s="34">
-        <f t="shared" si="1"/>
-        <v>1.011107029559535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12">
-        <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
-        <v>1.0028441867720401</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" si="2"/>
-        <v>1.9432951340635141</v>
-      </c>
-      <c r="D16" s="18">
-        <f t="shared" si="2"/>
-        <v>0.99136913058734188</v>
-      </c>
-      <c r="E16" s="34">
-        <f t="shared" si="2"/>
-        <v>0.28189023193697726</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="2"/>
-        <v>1.4393063232552545</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.98776274272180464</v>
-      </c>
-      <c r="H16" s="34">
-        <f t="shared" si="2"/>
-        <v>0.90061975759937363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.0008178295165688</v>
-      </c>
-      <c r="C17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.9757478315714807</v>
-      </c>
-      <c r="D17" s="18">
-        <f t="shared" si="2"/>
-        <v>0.97261242422139849</v>
-      </c>
-      <c r="E17" s="34">
-        <f t="shared" si="2"/>
-        <v>2.1980801546223429E-2</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.4455242752115192</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="2"/>
-        <v>0.99388019989672138</v>
-      </c>
-      <c r="H17" s="34">
-        <f t="shared" si="2"/>
-        <v>0.45155043650904564</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="34" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="34" t="e">
+      <c r="H18" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2562,10 +2598,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -2574,7 +2610,7 @@
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2591,7 +2627,7 @@
       <c r="D2" s="17">
         <v>8.0829999999999999E-2</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="33">
         <v>7.0235999999999996E-3</v>
       </c>
       <c r="F2" s="5">
@@ -2600,7 +2636,7 @@
       <c r="G2" s="5">
         <v>0.48907</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="33">
         <v>2.8686E-13</v>
       </c>
     </row>
@@ -2617,7 +2653,7 @@
       <c r="D3" s="17">
         <v>4.0663999999999999E-2</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="33">
         <v>2.8463999999999998E-3</v>
       </c>
       <c r="F3" s="5">
@@ -2626,7 +2662,7 @@
       <c r="G3" s="5">
         <v>0.25004999999999999</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="33">
         <v>1.4233000000000001E-13</v>
       </c>
     </row>
@@ -2643,7 +2679,7 @@
       <c r="D4" s="17">
         <v>2.0454E-2</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="33">
         <v>2.3413000000000002E-3</v>
       </c>
       <c r="F4" s="5">
@@ -2652,7 +2688,7 @@
       <c r="G4" s="5">
         <v>0.12609000000000001</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="33">
         <v>7.6239999999999999E-14</v>
       </c>
     </row>
@@ -2669,7 +2705,7 @@
       <c r="D5" s="17">
         <v>1.0423E-2</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="33">
         <v>2.3058000000000002E-3</v>
       </c>
       <c r="F5" s="5">
@@ -2678,7 +2714,7 @@
       <c r="G5" s="5">
         <v>6.3312999999999994E-2</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="33">
         <v>5.5752000000000002E-14</v>
       </c>
     </row>
@@ -2689,18 +2725,18 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="31"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="31"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="E7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
@@ -2896,7 +2932,7 @@
         <f t="shared" si="1"/>
         <v>0.99113871176128587</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="36">
         <f t="shared" si="1"/>
         <v>1.3030722687841789</v>
       </c>
@@ -2908,7 +2944,7 @@
         <f t="shared" si="1"/>
         <v>0.96782436611428357</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="36">
         <f t="shared" si="1"/>
         <v>1.011107029559535</v>
       </c>
@@ -2926,7 +2962,7 @@
         <f t="shared" si="2"/>
         <v>0.99136913058734188</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="36">
         <f t="shared" si="2"/>
         <v>0.28182861121979147</v>
       </c>
@@ -2938,7 +2974,7 @@
         <f t="shared" si="2"/>
         <v>0.98776274272180464</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="36">
         <f t="shared" si="2"/>
         <v>0.90061975759937396</v>
       </c>
@@ -2956,7 +2992,7 @@
         <f t="shared" si="2"/>
         <v>0.97261242422139849</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="36">
         <f t="shared" si="2"/>
         <v>2.2042422263409342E-2</v>
       </c>
@@ -2968,7 +3004,7 @@
         <f t="shared" si="2"/>
         <v>0.99388019989672138</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="36">
         <f t="shared" si="2"/>
         <v>0.45152455926734036</v>
       </c>
@@ -2987,7 +3023,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="34" t="e">
+      <c r="E18" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2999,13 +3035,13 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="34" t="e">
+      <c r="H18" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D19" s="36"/>
+      <c r="D19" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh3.xlsx
+++ b/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="perm=1" sheetId="1" r:id="rId1"/>
@@ -2097,6 +2097,499 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7.9694000000000001E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.1899E-2</v>
+      </c>
+      <c r="D2" s="31">
+        <v>8.0829999999999999E-2</v>
+      </c>
+      <c r="E2" s="33">
+        <v>7.0235999999999996E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.14563000000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.48907</v>
+      </c>
+      <c r="H2" s="33">
+        <v>2.8685999999999998E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.9604E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.2009999999999999E-3</v>
+      </c>
+      <c r="D3" s="31">
+        <v>4.0663999999999999E-2</v>
+      </c>
+      <c r="E3" s="33">
+        <v>2.8463999999999998E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.4012999999999999E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.25004999999999999</v>
+      </c>
+      <c r="H3" s="33">
+        <v>1.4232999999999999E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.9762999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.3233000000000005E-4</v>
+      </c>
+      <c r="D4" s="31">
+        <v>2.0454E-2</v>
+      </c>
+      <c r="E4" s="33">
+        <v>2.3411999999999999E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.9917000000000001E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.12609000000000001</v>
+      </c>
+      <c r="H4" s="33">
+        <v>7.624E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.8759E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.1160999999999999E-4</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1.0423E-2</v>
+      </c>
+      <c r="E5" s="33">
+        <v>2.3058000000000002E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7.3127000000000001E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.3312999999999994E-2</v>
+      </c>
+      <c r="H5" s="33">
+        <v>5.5750999999999997E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.9372000000000001E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5.3270000000000003E-5</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5.5805999999999998E-3</v>
+      </c>
+      <c r="E6" s="33">
+        <v>2.3035E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.6640000000000001E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.1826E-2</v>
+      </c>
+      <c r="H6" s="33">
+        <v>6.4071E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="37"/>
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" ref="B9:H12" si="0">B2/B3</f>
+        <v>2.0122714877285124</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.7172758512964701</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9877532952980523</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4675379426644182</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6962027660007779</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.955888822235553</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0154570364645541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0039467692152</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8458303797772513</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9880707929989243</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2157867760123013</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7119044032735853</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9831073043064475</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8668677859391394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0011340738565599</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.933320731534427</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9623908663532572</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0153525891230808</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7236178155811124</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9915341241135316</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3675091029757314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0003038159280564</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9724047306176078</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8677203168118124</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0009984805730412</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7450075075075073</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9893483315528182</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.87014405893461932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="12">
+        <f>LN(B9)/LN(2)</f>
+        <v>1.0088249609967421</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
+        <v>1.8942457515655138</v>
+      </c>
+      <c r="D15" s="32">
+        <f t="shared" si="1"/>
+        <v>0.99113871176128587</v>
+      </c>
+      <c r="E15" s="36">
+        <f t="shared" si="1"/>
+        <v>1.3030722687841789</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="1"/>
+        <v>1.43092899744847</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.96782436611428357</v>
+      </c>
+      <c r="H15" s="36">
+        <f t="shared" si="1"/>
+        <v>1.011107029559535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="12">
+        <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
+        <v>1.0028441867720401</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9432951340635141</v>
+      </c>
+      <c r="D16" s="32">
+        <f t="shared" si="2"/>
+        <v>0.99136913058734188</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" si="2"/>
+        <v>0.28189023193697726</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4393063232552545</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.98776274272180464</v>
+      </c>
+      <c r="H16" s="36">
+        <f t="shared" si="2"/>
+        <v>0.90061975759937363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0008178295165688</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9757478315714807</v>
+      </c>
+      <c r="D17" s="32">
+        <f t="shared" si="2"/>
+        <v>0.97261242422139849</v>
+      </c>
+      <c r="E17" s="36">
+        <f t="shared" si="2"/>
+        <v>2.1980801546223429E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4455242752115192</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99388019989672138</v>
+      </c>
+      <c r="H17" s="36">
+        <f t="shared" si="2"/>
+        <v>0.45155043650904564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.000219140222224</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9900126201241615</v>
+      </c>
+      <c r="D18" s="32">
+        <f t="shared" si="2"/>
+        <v>0.90127843376377792</v>
+      </c>
+      <c r="E18" s="36">
+        <f t="shared" si="2"/>
+        <v>1.4397842923858555E-3</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4568100949605429</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99229591176976906</v>
+      </c>
+      <c r="H18" s="36">
+        <f t="shared" si="2"/>
+        <v>-0.2006738250691581</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -2158,485 +2651,6 @@
         <v>0.48907</v>
       </c>
       <c r="H2" s="33">
-        <v>2.8685999999999998E-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3.9604E-2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3.2009999999999999E-3</v>
-      </c>
-      <c r="D3" s="17">
-        <v>4.0663999999999999E-2</v>
-      </c>
-      <c r="E3" s="33">
-        <v>2.8463999999999998E-3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5.4012999999999999E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.25004999999999999</v>
-      </c>
-      <c r="H3" s="33">
-        <v>1.4232999999999999E-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.9762999999999999E-2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8.3233000000000005E-4</v>
-      </c>
-      <c r="D4" s="17">
-        <v>2.0454E-2</v>
-      </c>
-      <c r="E4" s="33">
-        <v>2.3411999999999999E-3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.9917000000000001E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.12609000000000001</v>
-      </c>
-      <c r="H4" s="33">
-        <v>7.624E-11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5">
-        <v>9.8759E-3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.1160999999999999E-4</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1.0423E-2</v>
-      </c>
-      <c r="E5" s="33">
-        <v>2.3058000000000002E-3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>7.3127000000000001E-3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>6.3312999999999994E-2</v>
-      </c>
-      <c r="H5" s="33">
-        <v>5.5750999999999997E-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:H12" si="0">B2/B3</f>
-        <v>2.0122714877285124</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>3.7172758512964701</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9877532952980523</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>2.4675379426644182</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>2.6962027660007779</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.955888822235553</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0154570364645541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0039467692152</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>3.8458303797772513</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9880707929989243</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.2157867760123013</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>2.7119044032735853</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9831073043064475</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.8668677859391394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0011340738565599</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>3.933320731534427</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9623908663532572</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0153525891230808</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>2.7236178155811124</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9915341241135316</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.3675091029757314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="12">
-        <f>LN(B9)/LN(2)</f>
-        <v>1.0088249609967421</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>1.8942457515655138</v>
-      </c>
-      <c r="D15" s="18">
-        <f t="shared" si="1"/>
-        <v>0.99113871176128587</v>
-      </c>
-      <c r="E15" s="36">
-        <f t="shared" si="1"/>
-        <v>1.3030722687841789</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="1"/>
-        <v>1.43092899744847</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.96782436611428357</v>
-      </c>
-      <c r="H15" s="36">
-        <f t="shared" si="1"/>
-        <v>1.011107029559535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12">
-        <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
-        <v>1.0028441867720401</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" si="2"/>
-        <v>1.9432951340635141</v>
-      </c>
-      <c r="D16" s="18">
-        <f t="shared" si="2"/>
-        <v>0.99136913058734188</v>
-      </c>
-      <c r="E16" s="36">
-        <f t="shared" si="2"/>
-        <v>0.28189023193697726</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="2"/>
-        <v>1.4393063232552545</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.98776274272180464</v>
-      </c>
-      <c r="H16" s="36">
-        <f t="shared" si="2"/>
-        <v>0.90061975759937363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.0008178295165688</v>
-      </c>
-      <c r="C17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.9757478315714807</v>
-      </c>
-      <c r="D17" s="18">
-        <f t="shared" si="2"/>
-        <v>0.97261242422139849</v>
-      </c>
-      <c r="E17" s="36">
-        <f t="shared" si="2"/>
-        <v>2.1980801546223429E-2</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.4455242752115192</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="2"/>
-        <v>0.99388019989672138</v>
-      </c>
-      <c r="H17" s="36">
-        <f t="shared" si="2"/>
-        <v>0.45155043650904564</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="36" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="36" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
-        <v>7.9694000000000001E-2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.1899E-2</v>
-      </c>
-      <c r="D2" s="17">
-        <v>8.0829999999999999E-2</v>
-      </c>
-      <c r="E2" s="33">
-        <v>7.0235999999999996E-3</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.14563000000000001</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.48907</v>
-      </c>
-      <c r="H2" s="33">
         <v>2.8686E-13</v>
       </c>
     </row>

--- a/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh3.xlsx
+++ b/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh3.xlsx
@@ -2591,7 +2591,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D1" activeCellId="1" sqref="D15:D18 D1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2612,7 +2612,7 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="35" t="s">
@@ -2638,7 +2638,7 @@
       <c r="C2" s="5">
         <v>1.1899E-2</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="31">
         <v>8.0829999999999999E-2</v>
       </c>
       <c r="E2" s="33">
@@ -2664,7 +2664,7 @@
       <c r="C3" s="5">
         <v>3.2009999999999999E-3</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="31">
         <v>4.0663999999999999E-2</v>
       </c>
       <c r="E3" s="33">
@@ -2690,7 +2690,7 @@
       <c r="C4" s="5">
         <v>8.3233000000000005E-4</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="31">
         <v>2.0454E-2</v>
       </c>
       <c r="E4" s="33">
@@ -2716,7 +2716,7 @@
       <c r="C5" s="5">
         <v>2.1160999999999999E-4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="31">
         <v>1.0423E-2</v>
       </c>
       <c r="E5" s="33">
@@ -2736,13 +2736,27 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="5">
+        <v>4.9372000000000001E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5.3270000000000003E-5</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5.5805999999999998E-3</v>
+      </c>
+      <c r="E6" s="33">
+        <v>2.3035999999999998E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.6640000000000001E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.1826E-2</v>
+      </c>
+      <c r="H6" s="33">
+        <v>6.4073999999999998E-14</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -2874,33 +2888,33 @@
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0003038159280564</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9724047306176078</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8677203168118124</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.000955026914395</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7450075075075073</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9893483315528182</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.87011892499297694</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2942,7 +2956,7 @@
         <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
         <v>1.8942457515655138</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="32">
         <f t="shared" si="1"/>
         <v>0.99113871176128587</v>
       </c>
@@ -2972,7 +2986,7 @@
         <f t="shared" si="2"/>
         <v>1.9432951340635141</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="32">
         <f t="shared" si="2"/>
         <v>0.99136913058734188</v>
       </c>
@@ -3002,7 +3016,7 @@
         <f t="shared" si="2"/>
         <v>1.9757478315714807</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="32">
         <f t="shared" si="2"/>
         <v>0.97261242422139849</v>
       </c>
@@ -3025,33 +3039,33 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
-      <c r="B18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="36" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="36" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.000219140222224</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9900126201241615</v>
+      </c>
+      <c r="D18" s="32">
+        <f t="shared" si="2"/>
+        <v>0.90127843376377792</v>
+      </c>
+      <c r="E18" s="36">
+        <f t="shared" si="2"/>
+        <v>1.3771550878486252E-3</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4568100949605429</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99229591176976906</v>
+      </c>
+      <c r="H18" s="36">
+        <f t="shared" si="2"/>
+        <v>-0.20071549763623889</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
